--- a/medicine/Enfance/Alice_et_l'Œil_électronique/Alice_et_l'Œil_électronique.xlsx
+++ b/medicine/Enfance/Alice_et_l'Œil_électronique/Alice_et_l'Œil_électronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
+          <t>Alice_et_l'Œil_électronique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et l’Œil électronique (titre original : Mystery of the Glowing Eye, littéralement : Le Mystère de l’œil qui luit) est le cinquante-et-unième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume de plusieurs auteurs. L’auteur de ce roman est Harriet Adams. 
+Alice et l’Œil électronique (titre original : Mystery of the Glowing Eye, littéralement : Le Mystère de l’œil qui luit) est le cinquante-et-unième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume de plusieurs auteurs. L’auteur de ce roman est Harriet Adams. 
 Aux États-Unis, le roman a été publié pour la première fois en 1974 par Grosset &amp; Dunlap, New York. En France, il a paru pour la première fois en 1985 chez Hachette Jeunesse dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis 2001. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
+          <t>Alice_et_l'Œil_électronique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1985.
 Un hélicoptère se pose en catastrophe sur la pelouse des Roy. Accourue, Alice constate avec stupeur qu'il n'y a pas de pilote. Elle trouve dans l’appareil une enveloppe à son nom ; la lettre qu’elle contient porte la phrase suivante : « Attention au Cyclope ». La lettre était signée : Ned. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
+          <t>Alice_et_l'Œil_électronique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,17 +562,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, détective amateur blonde, fille de James Roy, orpheline de mère.
-James Roy, avocat [2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, détective amateur blonde, fille de James Roy, orpheline de mère.
+James Roy, avocat  de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Daniel Evans, ami et chevalier servant de Bess, camarade d'université de Ned.
 Bob Eddleton, ami et chevalier servant de Marion, camarade d'université de Ned.
-Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Marty King, jeune femme de 24 ans, fraîchement diplômée de l'école de droit et récemment embauchée dans l'étude de James Roy.
+Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Œil_électronique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marty King, jeune femme de 24 ans, fraîchement diplômée de l'école de droit et récemment embauchée dans l'étude de James Roy.
 Mlle Wilkin, guide au musée Anderson.
 Glenn Manson, pilote d'hélicoptère.
 Zapp Crosson, malfaiteur.
@@ -567,35 +620,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Œil_électronique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_l%27%C5%92il_%C3%A9lectronique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1985 : Hachette, collection Bibliothèque verte [3], cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 185 p. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1985 : Hachette, collection Bibliothèque verte , cartonné (français, version originale). Illustré par Philippe Daure. Texte français de Martine Millon. 20 chapitres. 185 p. 
 1988 : Hachette, collection Bibliothèque verte no 451, souple (français, version originale). Illustré par Philippe Daure.
-2000 : Hachette, collection Bibliothèque verte[4], souple (français, version originale). Illustré par Philippe Daure.</t>
+2000 : Hachette, collection Bibliothèque verte, souple (français, version originale). Illustré par Philippe Daure.</t>
         </is>
       </c>
     </row>
